--- a/forms/contact/person-create.xlsx
+++ b/forms/contact/person-create.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="268">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -184,16 +184,22 @@
     <t xml:space="preserve">${user_contact_name}</t>
   </si>
   <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${user_external_id}</t>
+  </si>
+  <si>
     <t xml:space="preserve">external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code unique de l’utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${user_external_id}</t>
+    <t xml:space="preserve">Unique code: &lt;br&gt; &lt;b&gt;${extid}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code utilisateur: &lt;br&gt; &lt;b&gt;${extid}&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">meta</t>
@@ -208,9 +214,6 @@
     <t xml:space="preserve">long</t>
   </si>
   <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
     <t xml:space="preserve">user_id</t>
   </si>
   <si>
@@ -388,19 +391,19 @@
     <t xml:space="preserve">selected(../dob_method,'approx')</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be 0 or more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’age doit être supérieur à 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Age in years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Age en années)</t>
+    <t xml:space="preserve">.&gt;=0 and .&lt;100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age must between 0 and 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’age doit être entre 0 et 99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**(Age in years)** Age must between 0 and 99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**(Age en années)** L’age doit être entre 0 et 99 </t>
   </si>
   <si>
     <t xml:space="preserve">age_months</t>
@@ -906,11 +909,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -976,6 +980,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF8EAADB"/>
       <name val="Calibri"/>
@@ -1025,7 +1035,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1070,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1133,7 +1149,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1186,7 +1202,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1202,7 +1218,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,23 +1230,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1238,7 +1246,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1262,7 +1290,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,27 +1318,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,27 +1350,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1354,7 +1378,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,15 +1386,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1440,7 +1464,7 @@
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF8CCFB7"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFB4A7D6"/>
       <rgbColor rgb="FFDADADA"/>
       <rgbColor rgb="FF2E75B6"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1468,12 +1492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1772,440 +1794,413 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="16" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="L14" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="H14" s="13" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="C15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="F15" s="11"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="20"/>
-      <c r="O15" s="8"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="B16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="23"/>
+      <c r="O16" s="8"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22" t="s">
+      <c r="B17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="O17" s="27"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="B18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="O18" s="27"/>
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="30"/>
-      <c r="O18" s="28"/>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="B19" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="33"/>
+      <c r="O19" s="31"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="30"/>
-      <c r="O19" s="28"/>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+      <c r="O20" s="31"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="B21" s="24"/>
+      <c r="D21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="O21" s="27"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="D21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="R21" s="26"/>
-    </row>
-    <row r="22" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="24"/>
+      <c r="D22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="O22" s="27"/>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="F22" s="11"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="11"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="L25" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="L26" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="0"/>
-      <c r="H26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="L26" s="18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="H27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="L27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="H27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="L27" s="18" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="0"/>
+      <c r="H28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="L28" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="L28" s="18" t="s">
+    </row>
+    <row r="29" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="J29" s="41"/>
+      <c r="L29" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="L29" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="L30" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="L30" s="18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="L31" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="L31" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="J32" s="39"/>
+      <c r="L32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="L32" s="18" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="L33" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" s="43" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="40" t="s">
+      <c r="B36" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="C36" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="R35" s="43"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="44" t="s">
+      <c r="D36" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="45"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="R36" s="46"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="45"/>
-      <c r="L36" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="44" t="s">
+      <c r="C37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="47"/>
+      <c r="L37" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="44" t="s">
+      <c r="P37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="P38" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="P38" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -2213,289 +2208,285 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="P39" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44" t="s">
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="P40" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M40" s="44"/>
-      <c r="P40" s="44"/>
-    </row>
-    <row r="41" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="44" t="s">
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44" t="s">
+      <c r="M41" s="21"/>
+      <c r="P41" s="21"/>
+    </row>
+    <row r="42" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="M41" s="44"/>
-      <c r="P41" s="44"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="M42" s="21"/>
+      <c r="P42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="E43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="B44" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="C44" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" s="44" t="s">
+      <c r="D44" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="E44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="12" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B45" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="44" t="s">
+      <c r="D45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="44" t="s">
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="J44" s="44" t="s">
+      <c r="I45" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="J45" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="K45" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="N45" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="O45" s="46" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="O46" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="44" t="s">
+      <c r="C47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="D47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K46" s="44" t="s">
+      <c r="J47" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="46" t="s">
+      <c r="K47" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="O46" s="46" t="s">
+      <c r="N47" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="P46" s="1" t="n">
+      <c r="O47" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="44" t="s">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="49" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="18" t="s">
+      <c r="D49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="18" t="s">
+      <c r="E49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>91</v>
+      <c r="G49" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="50" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="18" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B50" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="F50" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="K50" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="N50" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="O50" s="48" t="s">
-        <v>148</v>
+        <v>91</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2503,34 +2494,34 @@
         <v>21</v>
       </c>
       <c r="B51" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="K51" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="N51" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="O51" s="48" t="s">
-        <v>153</v>
+      <c r="N51" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" s="50" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2538,69 +2529,80 @@
         <v>21</v>
       </c>
       <c r="B52" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="N52" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="O52" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I52" s="18" t="s">
+      <c r="D53" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J52" s="48" t="s">
+      <c r="I53" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="K52" s="48" t="s">
+      <c r="J53" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="N52" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="O52" s="48" t="s">
+      <c r="K53" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="N53" s="50" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="O53" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="M53" s="15"/>
-      <c r="P53" s="15"/>
     </row>
     <row r="54" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>18</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="I54" s="15"/>
@@ -2612,313 +2614,336 @@
       <c r="M54" s="15"/>
       <c r="P54" s="15"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="12" t="s">
+    <row r="55" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="15"/>
+      <c r="P55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="F56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="L56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
+      <c r="D57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="18" t="s">
+    </row>
+    <row r="58" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="B58" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="N57" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="O57" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="L58" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O58" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="N58" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="O58" s="18" t="s">
+    </row>
+    <row r="59" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="L59" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="N59" s="18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N60" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="O60" s="49" t="s">
-        <v>181</v>
-      </c>
-    </row>
+      <c r="O59" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="O61" s="51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N61" s="49" t="s">
+      <c r="K62" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O61" s="49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
+      <c r="N62" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="O62" s="51" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="F64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="34" t="s">
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="44" t="s">
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="34" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="50" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="44" t="s">
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="34" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="44" t="s">
+      <c r="C69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="34" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="C70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="12"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="72" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="51" t="s">
+      <c r="L72" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" s="43" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="51"/>
-      <c r="O72" s="41"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="53"/>
+      <c r="O73" s="44"/>
+    </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2964,8 +2989,15 @@
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A47 A36:B37 A50:A55 A65:B69 A58 A38:A41">
+  <conditionalFormatting sqref="A48 A37:B38 A66:B70 A59 A39:A42 A51:A56">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -2987,7 +3019,7 @@
   </sheetPr>
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3002,234 +3034,234 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="D2" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="A3" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="D3" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
+      <c r="D4" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
+      <c r="D5" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
+      <c r="D6" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="A7" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-    </row>
-    <row r="8" s="44" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="D7" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="47" t="s">
         <v>223</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>224</v>
       </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
@@ -3275,18 +3307,18 @@
       <c r="BK8" s="0"/>
       <c r="BL8" s="0"/>
     </row>
-    <row r="9" s="44" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="45" t="s">
+    <row r="9" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="47" t="s">
         <v>226</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
@@ -3332,18 +3364,18 @@
       <c r="BK9" s="0"/>
       <c r="BL9" s="0"/>
     </row>
-    <row r="10" s="44" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="44" t="s">
+    <row r="10" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>228</v>
+      <c r="C10" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>229</v>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
@@ -3389,18 +3421,18 @@
       <c r="BK10" s="0"/>
       <c r="BL10" s="0"/>
     </row>
-    <row r="11" s="44" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="44" t="s">
+    <row r="11" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="21" t="s">
         <v>231</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>232</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
@@ -3447,124 +3479,124 @@
       <c r="BL11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="C12" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="D13" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="45" t="s">
+      <c r="A14" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="C14" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
+      <c r="D14" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>243</v>
       </c>
+      <c r="C15" s="21" t="s">
+        <v>244</v>
+      </c>
       <c r="D15" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>245</v>
+      <c r="A16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>246</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3591,7 +3623,7 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3605,83 +3637,83 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="F1" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="46" t="str">
+      <c r="B2" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="48" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-12-14  17-33</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="46" t="s">
+        <v>2023-09-07  12-25</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
+      <c r="F2" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3702,7 +3734,7 @@
   </sheetPr>
   <dimension ref="A4:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -3710,57 +3742,57 @@
   <sheetData>
     <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="59" t="s">
         <v>258</v>
       </c>
+      <c r="B4" s="61" t="s">
+        <v>259</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="44"/>
+        <v>261</v>
+      </c>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L5" s="44"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="59" t="s">
         <v>265</v>
       </c>
+      <c r="B6" s="61" t="s">
+        <v>266</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6" s="44"/>
+        <v>261</v>
+      </c>
+      <c r="L6" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B6">

--- a/forms/contact/person-create.xlsx
+++ b/forms/contact/person-create.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="265">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">${user_role} !="chw"</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -367,7 +367,7 @@
     <t xml:space="preserve">selected(../dob_method,'calendar')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;today()</t>
+    <t xml:space="preserve">. &lt;= today()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -518,15 +518,6 @@
   </si>
   <si>
     <t xml:space="preserve">../external_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b style="color:green;"&gt;Patient Code: &lt;/b&gt; &lt;b&gt;${code}&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b style="color:green;"&gt;Code Patient: &lt;/b&gt; &lt;b&gt;${code}&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
@@ -914,7 +905,7 @@
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -990,13 +981,6 @@
       <color rgb="FF8EAADB"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1149,7 +1133,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1274,11 +1258,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1342,35 +1326,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1378,7 +1350,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,15 +1362,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1494,8 +1470,8 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1578,7 +1554,9 @@
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1595,7 +1573,9 @@
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1887,12 +1867,17 @@
       <c r="B19" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="C19" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="33"/>
-      <c r="O19" s="31"/>
+      <c r="O19" s="32"/>
       <c r="R19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1902,12 +1887,17 @@
       <c r="B20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="C20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="33"/>
-      <c r="O20" s="31"/>
+      <c r="O20" s="32"/>
       <c r="R20" s="34"/>
     </row>
     <row r="21" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2180,42 +2170,38 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="P39" s="15" t="s">
+      <c r="L39" s="21"/>
+      <c r="P39" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="21" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2224,25 +2210,21 @@
       <c r="D40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="P40" s="15" t="s">
+      <c r="L40" s="21"/>
+      <c r="P40" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
         <v>53</v>
       </c>
@@ -2255,18 +2237,11 @@
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
       <c r="L41" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="M41" s="21"/>
-      <c r="P41" s="21"/>
-    </row>
-    <row r="42" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
         <v>53</v>
       </c>
@@ -2279,22 +2254,15 @@
       <c r="D42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
       <c r="L42" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M42" s="21"/>
-      <c r="P42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2306,18 +2274,19 @@
       <c r="E43" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2326,15 +2295,16 @@
       <c r="G44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P44" s="21" t="s">
+      <c r="L44" s="21"/>
+      <c r="P44" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2346,39 +2316,40 @@
       <c r="E45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="1" t="s">
         <v>122</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -2387,15 +2358,16 @@
       <c r="K46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N46" s="48" t="s">
+      <c r="L46" s="21"/>
+      <c r="N46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O46" s="48" t="s">
+      <c r="O46" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -2410,33 +2382,34 @@
       <c r="E47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N47" s="48" t="s">
+      <c r="L47" s="21"/>
+      <c r="N47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O47" s="48" t="s">
+      <c r="O47" s="1" t="s">
         <v>133</v>
       </c>
       <c r="P47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="21" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2449,11 +2422,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="21" t="s">
         <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2468,348 +2441,350 @@
       <c r="G49" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J51" s="50" t="s">
+      <c r="J51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N51" s="50" t="s">
+      <c r="L51" s="21"/>
+      <c r="N51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O51" s="50" t="s">
+      <c r="O51" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J52" s="50" t="s">
+      <c r="J52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N52" s="50" t="s">
+      <c r="L52" s="21"/>
+      <c r="N52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O52" s="50" t="s">
+      <c r="O52" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I53" s="18" t="s">
+      <c r="I53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N53" s="50" t="s">
+      <c r="L53" s="21"/>
+      <c r="N53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O53" s="50" t="s">
+      <c r="O53" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="P54" s="15"/>
-    </row>
-    <row r="55" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15" t="s">
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="P55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>165</v>
       </c>
+      <c r="B57" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
+      <c r="E57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="L57" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="N57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="19" t="s">
+      <c r="O58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L58" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="N58" s="18" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="L59" s="21"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="O58" s="18" t="s">
+      <c r="C60" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="D60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L60" s="21"/>
+      <c r="N60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L61" s="21"/>
+      <c r="N61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="L62" s="21"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+    </row>
+    <row r="64" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="L59" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="N59" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="O59" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N61" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="O61" s="51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N62" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="O62" s="51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="37" t="s">
         <v>188</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,7 +2792,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>18</v>
@@ -2826,7 +2801,7 @@
         <v>18</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +2809,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>18</v>
@@ -2842,8 +2817,8 @@
       <c r="D67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="37" t="s">
-        <v>45</v>
+      <c r="L67" s="49" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,16 +2826,16 @@
         <v>53</v>
       </c>
       <c r="B68" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="37" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="52" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,82 +2843,66 @@
         <v>53</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="37" t="s">
+    </row>
+    <row r="70" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="21" t="s">
+      <c r="C71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="37" t="s">
+      <c r="D71" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
+      <c r="L71" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" s="43" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="12"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" s="43" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="53"/>
-      <c r="O73" s="44"/>
-    </row>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="50"/>
+      <c r="O72" s="44"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2989,7 +2948,7 @@
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2997,7 +2956,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A48 A37:B38 A66:B70 A59 A39:A42 A51:A56">
+  <conditionalFormatting sqref="A37:B62 A65:B69">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3020,7 +2979,7 @@
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="I45 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3034,16 +2993,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21"/>
@@ -3065,17 +3024,17 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>206</v>
+      <c r="C2" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3096,17 +3055,17 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>208</v>
+      <c r="D3" s="54" t="s">
+        <v>205</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -3127,17 +3086,17 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>209</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -3158,17 +3117,17 @@
       <c r="U4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>215</v>
+      <c r="A5" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>212</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -3189,17 +3148,17 @@
       <c r="U5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>218</v>
+      <c r="A6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>215</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -3220,17 +3179,17 @@
       <c r="U6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>220</v>
+      <c r="D7" s="54" t="s">
+        <v>217</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -3252,16 +3211,16 @@
     </row>
     <row r="8" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>221</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>224</v>
       </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
@@ -3309,16 +3268,16 @@
     </row>
     <row r="9" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>224</v>
       </c>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
@@ -3366,16 +3325,16 @@
     </row>
     <row r="10" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>226</v>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
@@ -3423,16 +3382,16 @@
     </row>
     <row r="11" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>229</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
@@ -3479,17 +3438,17 @@
       <c r="BL11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
-        <v>233</v>
+      <c r="A12" s="55" t="s">
+        <v>230</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>232</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -3510,17 +3469,17 @@
       <c r="U12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>236</v>
-      </c>
       <c r="C13" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>235</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -3541,17 +3500,17 @@
       <c r="U13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48" t="s">
-        <v>233</v>
+      <c r="A14" s="55" t="s">
+        <v>230</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>238</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -3573,30 +3532,30 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3624,7 +3583,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="I45 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3637,23 +3596,23 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>250</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>253</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -3678,21 +3637,21 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="48" t="str">
+        <v>251</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="55" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-07  12-25</v>
+        <v>2024-07-12  14-26</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>257</v>
+        <v>253</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>254</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
@@ -3735,62 +3694,62 @@
   <dimension ref="A4:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="1" sqref="I45 I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="L4" s="21"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L5" s="21"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>266</v>
+        <v>262</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L6" s="21"/>
     </row>
@@ -3804,8 +3763,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>